--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -575,7 +575,7 @@
         <v>44867.4296412037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45996.33891203703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44882</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44882</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45254.63260416667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45996.33436342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45973.58516203704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45996.3310300926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45618.60362268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45524</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45973.59269675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44861</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44882</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44393</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44628</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44867.4266087963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45973.57854166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>46008.64375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45261</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45463.32967592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45747.40402777777</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45791.49608796297</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44837</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44867.42446759259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45709</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45846.51239583334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>45873.43710648148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45968.39071759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45981.55150462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45981.55387731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>46001.70148148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45236</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45236</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44867.41003472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44988</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44908.25326388889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44867.42917824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44321.59518518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>44328</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44421.6018287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44361.89840277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44297.74986111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44426</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44426</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44803.81030092593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44803</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44617.62023148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44746</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44825</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44379.41850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44484</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44813</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44528</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44286</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44328</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44328</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44363</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44382</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44328</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44621</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44449</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>44662.38864583334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44357.69152777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44805</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44484</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44804.53834490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44614</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44522</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44579.33436342593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>44328.31252314815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44662</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44445.38594907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44571</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>44378.62489583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44503</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44378.62453703704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44805</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44351.64181712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44795.3625925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45338.32368055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45740.57796296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45132.7075</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45597.50105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>45175.39209490741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44792</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45160</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45349</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45726.42836805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45622.4384375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45261.64101851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45226.66472222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>45384</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45092.37815972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45377.4959837963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45391</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45618.60434027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45344.37394675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45560</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45771.45965277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45771.46131944445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44475.36864583333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45741.56476851852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45741.56659722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44379.489375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>45160</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44917.35619212963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45799.53796296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45886</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45825</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45160</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45701</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45042</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45799.53336805556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45467.43505787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44797</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45800.64457175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45800.445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>45337.53797453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44988.54459490741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>45618.55291666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45225</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44897</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45734.4234375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45408.69633101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>45891.58603009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45891.58693287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44998</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45819.35181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>45553</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45560</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45618</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45896</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45400.45157407408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44357.68817129629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45819.33673611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45625.57818287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45819</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45821.54993055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45821.54633101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>45821.54746527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45905.59076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45905.59568287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45905.59783564815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44813</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44813</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45905.59025462963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45905.60946759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45905.59133101852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45908.42826388889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45908.42994212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45744.38372685185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45908.42685185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45908.4287962963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45908.43072916667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44503.52611111111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45910.4009375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45827.57152777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45827.51025462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45601</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44393.49886574074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45915</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45090.43478009259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45764.4008912037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>45920</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>45089.6462962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45021.38399305556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44792</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44872.56392361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45841.57755787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45841.58515046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45841.60391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45740.57917824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45841.59417824074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45841.5987962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>45935.99478009259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45938.92496527778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45938.9259375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44874.4575</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45841.58979166667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45840.71344907407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>45260</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45937.75980324074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44872.46712962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>44467.32645833334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45233.5592824074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45945.99771990741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45945.99828703704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45561</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44748.36506944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45950.6081712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45338</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45600.58674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45622.43747685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>45622.44200231481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>45622.44274305556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45554</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44393.45215277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45873.39019675926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45536.6512037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45555.46884259259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45748</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>45873</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45597.6003125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45126</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45126</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45622.44341435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45261</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>45958.42094907408</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>45546.61100694445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45271.2524537037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45880.44960648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45881.6027662037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45742.30726851852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45338.35049768518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45701</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44522</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45967.3659837963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>45968.38842592593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45734.42104166667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>45679.62376157408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45968.5665625</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44522</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45709</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45975.69277777777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45260</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45978.43898148148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45377.49229166667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45981.37197916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45981.37136574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45980.58049768519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44708.45179398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>45771.47118055556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45980.45997685185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45980.46274305556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45216</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45709</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>45771.45430555556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45986.58210648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>46029.50076388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>44993</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45392.47633101852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45175</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>46035.59490740741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>46035.59541666666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45992.60303240741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45338.35387731482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45618.60305555556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>46034.70686342593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>45048</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>46036.37450231481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>46036.38921296296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44483</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>46036.60891203704</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>45999.54637731481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45403</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45403</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45995.83008101852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45441</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45441.62837962963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44879</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45996.58229166667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45996.58486111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45999.54435185185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45995.89465277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45572.61414351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45161.63891203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45385.56987268518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45385.58356481481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45618.601875</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45536.64768518518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>46045.60472222222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>46003.76982638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>46048</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45973.59538194445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45344.35774305555</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45600</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>46051.42962962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>46051.43072916667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44907.42807870371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>46048</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45537.4871412037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44441</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45569</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44963.68445601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45740.57543981481</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44813</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>45593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>46029</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>46029</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>46029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45609.36297453703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44393.45766203704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>45553.45989583333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45558.55032407407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>46058.59171296296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>45127.38172453704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45209.43077546296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45132.69987268518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45132.71356481482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44790.37331018518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44795</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44475.37439814815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45240</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44988.55023148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>44732.63936342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>45448.51060185185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45525</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45240</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>45240</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45546.6125925926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45261.6415625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45454.60694444444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44484</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45555</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45747.36502314815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45747.40925925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45560</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45560</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>45448</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45560.48070601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45234</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45245</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45537.46501157407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>45537.46827546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45240</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>45385.58478009259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45344.3665625</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45230.45271990741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45734</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44949.6052199074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45525</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45259.4353587963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45593</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45764.39489583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>45261.58835648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45618.55387731481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45377.49775462963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45180</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45366.46909722222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45560</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45734</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45734</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>44602.63045138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45597.51060185185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45392.47525462963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45555.47060185186</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45532.89505787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44746.49515046296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45240</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45240</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44503.50170138889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45503</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>45503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45159.37641203704</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44987</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45385.56900462963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45134.49677083334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45134.49881944444</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45306</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45764.39592592593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44456</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44445.38759259259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>44456</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45089.50358796296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45089.5080787037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45622.43645833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45741.56847222222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>45741.56908564815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44957</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44957</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44503</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45771.45527777778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>45771.45670138889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45782.5905324074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45781.90659722222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45062</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45338.34609953704</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45786.49619212963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>45467.42864583333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45786</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>45789.35614583334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45791.49789351852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45791.48628472222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45791.49327546296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>45791.49697916667</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>45230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -575,7 +575,7 @@
         <v>44867.4296412037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45996.33891203703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44882</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44882</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45254.63260416667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45996.33436342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45973.58516203704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45996.3310300926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45618.60362268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45524</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45973.59269675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44861</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44882</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44393</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44867</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>44628</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>44867.4266087963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45973.57854166667</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>46008.64375</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45261</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45463.32967592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45747.40402777777</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45791.49608796297</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44837</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44867.42446759259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45709</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45846.51239583334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>45873.43710648148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45968.39071759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45981.55150462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45981.55387731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>46001.70148148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45236</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45236</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44867.41003472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44988</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44908.25326388889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44867.42917824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44321.59518518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>44328</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44421.6018287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44361.89840277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44297.74986111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44426</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44426</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44803.81030092593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44803</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44617.62023148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44494</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44746</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44825</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44379.41850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44484</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44813</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44528</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44286</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44328</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44328</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44363</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44382</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44328</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44379</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44621</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44434</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44449</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>44662.38864583334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44357.69152777778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44805</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>44803</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44484</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44804.53834490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44614</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44522</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44579.33436342593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>44328.31252314815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44662</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44445.38594907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44571</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>44378.62489583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44503</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44378.62453703704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44805</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44351.64181712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44795.3625925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45338.32368055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45740.57796296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45132.7075</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45597.50105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>45175.39209490741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44792</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
         <v>45439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>45160</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45349</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45726.42836805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45622.4384375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45261.64101851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45226.66472222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>45384</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45092.37815972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45377.4959837963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45391</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45618.60434027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45344.37394675926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>45560</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45771.45965277778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45771.46131944445</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44475.36864583333</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45741.56476851852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>45741.56659722222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>44379.489375</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>45160</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>44917.35619212963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45799.53796296296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45886</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45825</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45160</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45701</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>45819</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45042</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45799.53336805556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>45467.43505787037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>44797</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>45800.64457175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45800.445</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>45337.53797453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44988.54459490741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>45618.55291666667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>45225</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         <v>44897</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>45734.4234375</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45698</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45408.69633101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>45891.58603009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>45891.58693287037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>44998</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45819.35181712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>45553</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>45560</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45618</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45896</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45400.45157407408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44357.68817129629</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>45819.33673611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>45625.57818287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>45819</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         <v>45821.54993055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>45821.54633101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>45821.54746527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         <v>45180</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>45905.59076388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12202,7 +12202,7 @@
         <v>45905.59568287037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45905.59783564815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>44813</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>44813</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45905.59025462963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45905.60946759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45905.59133101852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45908.42826388889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45908.42994212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45744.38372685185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45908.42685185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45908.4287962963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45908.43072916667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44503.52611111111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45910.4009375</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45827.57152777778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45827.51025462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45601</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>44393.49886574074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45915</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45090.43478009259</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>45764.4008912037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         <v>44496</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13613,7 +13613,7 @@
         <v>45920</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13670,7 +13670,7 @@
         <v>45089.6462962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45021.38399305556</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44792</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44872.56392361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45841.57755787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45841.58515046296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>45841.60391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45740.57917824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>45841.59417824074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>45841.5987962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>45935.99478009259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>45938.92496527778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>45938.9259375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>44874.4575</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>45841.58979166667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45840.71344907407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>45260</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>45937.75980324074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44872.46712962963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>44467.32645833334</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45233.5592824074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45945.99771990741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45945.99828703704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45561</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44748.36506944444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45950.6081712963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45338</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45600.58674768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45622.43747685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         <v>45622.44200231481</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>45622.44274305556</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45554</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44393.45215277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>45873.39019675926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45536.6512037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>45555.46884259259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15934,7 +15934,7 @@
         <v>45748</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         <v>45873</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>45597.6003125</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45126</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>45126</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>45622.44341435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>45261</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>45958.42094907408</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>45546.61100694445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>45271.2524537037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         <v>45880.44960648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16591,7 +16591,7 @@
         <v>45881.6027662037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45742.30726851852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45338.35049768518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45701</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44522</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45967.3659837963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>45968.38842592593</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>45734.42104166667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>45679.62376157408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45968.5665625</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>44522</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45709</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>44886</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45975.69277777777</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45260</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45978.43898148148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>45377.49229166667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17605,7 +17605,7 @@
         <v>45981.37197916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>45981.37136574074</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>45980.58049768519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44708.45179398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>45771.47118055556</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45980.45997685185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45980.46274305556</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45216</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45709</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18143,7 +18143,7 @@
         <v>45771.45430555556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45986.58210648148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>46029.50076388889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>44993</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18453,7 +18453,7 @@
         <v>45392.47633101852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45175</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>46035.59490740741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>46035.59541666666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18696,7 +18696,7 @@
         <v>45992.60303240741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18758,7 +18758,7 @@
         <v>45338.35387731482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18815,7 +18815,7 @@
         <v>45618.60305555556</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>46034.70686342593</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>45048</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>46036.37450231481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
         <v>46036.38921296296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44483</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>46036.60891203704</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>45999.54637731481</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>45403</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45403</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45995.83008101852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45441</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45441.62837962963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>44879</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45996.58229166667</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45996.58486111111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45999.54435185185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19844,7 +19844,7 @@
         <v>45995.89465277778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45572.61414351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45161.63891203704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>45385.56987268518</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45385.58356481481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>45618.601875</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45536.64768518518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>46045.60472222222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>46003.76982638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>46048</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45973.59538194445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45344.35774305555</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45600</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>46051.42962962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20672,7 +20672,7 @@
         <v>46051.43072916667</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44907.42807870371</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>46048</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45537.4871412037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>44441</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45569</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44963.68445601852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45740.57543981481</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44813</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21215,7 +21215,7 @@
         <v>45593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45593</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21401,7 +21401,7 @@
         <v>46029</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>46029</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>46029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45609.36297453703</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44393.45766203704</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>45553.45989583333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45558.55032407407</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>46058.59171296296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>45127.38172453704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>45209.43077546296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45132.69987268518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45132.71356481482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44790.37331018518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>44795</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>44475.37439814815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>45240</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44988.55023148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22482,7 +22482,7 @@
         <v>44732.63936342593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>45448.51060185185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45525</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45240</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>45240</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45546.6125925926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         <v>45261.6415625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22896,7 +22896,7 @@
         <v>45454.60694444444</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22953,7 +22953,7 @@
         <v>45630</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
         <v>44484</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45555</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23124,7 +23124,7 @@
         <v>45747.36502314815</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>45747.40925925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45560</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45560</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>45448</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45560.48070601852</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45234</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>45245</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45537.46501157407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23657,7 +23657,7 @@
         <v>45537.46827546296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45240</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>45385.58478009259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45344.3665625</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45230.45271990741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23952,7 +23952,7 @@
         <v>45734</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24009,7 +24009,7 @@
         <v>44949.6052199074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         <v>45525</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>45259.4353587963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45593</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>45764.39489583333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>45261.58835648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45618.55387731481</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45377.49775462963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>45180</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45366.46909722222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>45358</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>45155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>45560</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24795,7 +24795,7 @@
         <v>45734</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>45734</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24909,7 +24909,7 @@
         <v>44494</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
         <v>44602.63045138889</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>45597.51060185185</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25085,7 +25085,7 @@
         <v>45392.47525462963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45555.47060185186</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25209,7 +25209,7 @@
         <v>45532.89505787037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         <v>44746.49515046296</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25328,7 +25328,7 @@
         <v>45240</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25385,7 +25385,7 @@
         <v>45240</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>44503.50170138889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45503</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>45503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45159.37641203704</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>44987</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>45385.56900462963</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25799,7 +25799,7 @@
         <v>45134.49677083334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45134.49881944444</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25913,7 +25913,7 @@
         <v>45306</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25970,7 +25970,7 @@
         <v>45764.39592592593</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         <v>44456</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>44445.38759259259</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>44456</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45089.50358796296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45089.5080787037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45622.43645833333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26394,7 +26394,7 @@
         <v>45741.56847222222</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         <v>45741.56908564815</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>44957</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26580,7 +26580,7 @@
         <v>44957</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>44503</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         <v>45771.45527777778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>45771.45670138889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>45782.5905324074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>45781.90659722222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45062</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45338.34609953704</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45786.49619212963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>45467.42864583333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45786</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>45789.35614583334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>45791.49789351852</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27371,7 +27371,7 @@
         <v>45791.48628472222</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45791.49327546296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>45791.49697916667</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>45230</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -575,7 +575,7 @@
         <v>44867.4296412037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45996.33891203703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44882</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44882</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45254.63260416667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45996.33436342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45973.58516203704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45996.3310300926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45618.60362268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45524</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45973.59269675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44861</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44882</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44393</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44628</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44867.4266087963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45973.57854166667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>46008.64375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44867</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45261</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45463.32967592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45747.40402777777</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45791.49608796297</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44837</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44867.42446759259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45846.51239583334</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45709</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>45873.43710648148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45968.39071759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45981.55150462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45981.55387731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>46001.70148148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45236</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45236</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44867.41003472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44988</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44908.25326388889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44867.42917824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44321.59518518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>44328</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44421.6018287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44361.89840277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44297.74986111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44426</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44426</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44803.81030092593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44803</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44617.62023148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44746</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>44494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44825</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44379.41850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44484</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44813</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44528</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44286</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44328</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44328</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44363</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44382</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44328</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44379</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44621</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44449</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>44662.38864583334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44803</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44357.69152777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44805</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44484</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44804.53834490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44614</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44522</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44579.33436342593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>44328.31252314815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44662</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44445.38594907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44571</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>44378.62489583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44503</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44378.62453703704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44805</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44351.64181712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44795.3625925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45338.32368055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45740.57796296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45175.39209490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45132.7075</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44792</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45597.50105324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45349</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45726.42836805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45261.64101851852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45622.4384375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45226.66472222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>45384</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45092.37815972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45344.37394675926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45377.4959837963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45618.60434027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45391</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44475.36864583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45560</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45741.56476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>45741.56659722222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44379.489375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>45771.45965277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45771.46131944445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44917.35619212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45160</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45160</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45467.43505787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44988.54459490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45337.53797453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45225</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45734.4234375</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44897</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>45408.69633101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44998</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45886</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45825</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45701</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45698</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45560</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45819.33673611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45625.57818287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45618</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45400.45157407408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>44357.68817129629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45821.54993055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45821.54633101852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45821.54746527778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45618.55291666667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45180</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>45827.57152777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44813</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44813</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45827.51025462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>45891.58603009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45891.58693287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45744.38372685185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45819.35181712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44503.52611111111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44393.49886574074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45090.43478009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45764.4008912037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>45905.59076388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>45905.59568287037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45905.59783564815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45905.59025462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45905.60946759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>45905.59133101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45908.42826388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45908.42994212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45841.57755787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45841.58515046296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45841.60391203704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45841.59417824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>45841.5987962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45089.6462962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>45908.42685185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45908.4287962963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45908.43072916667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>45841.58979166667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45910.4009375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45840.71344907407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45021.38399305556</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44748.36506944444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44792</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44872.56392361111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45920</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45740.57917824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44874.4575</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45260</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45873.39019675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44872.46712962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44467.32645833334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>45233.5592824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>45561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>45880.44960648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45881.6027662037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>45593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45701</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45338</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45935.99478009259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45938.92496527778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45938.9259375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45734.42104166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45600.58674768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45937.75980324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45622.43747685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>45622.44200231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45622.44274305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45554</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44393.45215277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45536.6512037037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>45555.46884259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45748</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45597.6003125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45945.99771990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45945.99828703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45126</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45126</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45622.44341435185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45261</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45546.61100694445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45950.6081712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45271.2524537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45742.30726851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45338.35049768518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>45679.62376157408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45958.42094907408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44522</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45709</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45260</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45377.49229166667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45967.3659837963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44708.45179398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45771.47118055556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45968.38842592593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45968.5665625</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45216</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45709</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>45771.45430555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45975.69277777777</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>45978.43898148148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>45981.37197916667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45981.37136574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>45980.58049768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45392.47633101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45980.45997685185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>45980.46274305556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45338.35387731482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45618.60305555556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45986.58210648148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44483</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>46035.59490740741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>46035.59541666666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45992.60303240741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>46034.70686342593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45403</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>45403</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>46036.37450231481</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>46036.38921296296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45441</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45441.62837962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>46036.60891203704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44879</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>45999.54637731481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45995.83008101852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45996.58229166667</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45996.58486111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45999.54435185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45995.89465277778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45572.61414351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45161.63891203704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45385.56987268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>45385.58356481481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45618.601875</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45536.64768518518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>46045.60472222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45344.35774305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>46003.76982638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45600</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>44907.42807870371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>46048</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45973.59538194445</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45537.4871412037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44441</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>46051.42962962963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>46051.43072916667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45569</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44963.68445601852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>46048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45740.57543981481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44813</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45609.36297453703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44393.45766203704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>46029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>46029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>46029</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>45553.45989583333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45558.55032407407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>46058.59171296296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45127.38172453704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45209.43077546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45132.69987268518</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45132.71356481482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44790.37331018518</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44475</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44475.37439814815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45240</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44988.55023148148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44732.63936342593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45448.51060185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45525</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45240</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45240</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45546.6125925926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>46069.66158564815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>46069.66487268519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>46069.66291666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>46069.66438657408</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45261.6415625</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45454.60694444444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>46029.50076388889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>45630</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44484</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45555</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>45747.36502314815</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45747.40925925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45560</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45560</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>46073.54361111111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>46073.54277777778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>45448</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23496,7 +23496,7 @@
         <v>45560.48070601852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45234</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45245</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45537.46501157407</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>45537.46827546296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45240</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>45385.58478009259</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>45344.3665625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>45230.45271990741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>45734</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44949.6052199074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>45525</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>45259.4353587963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>45593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45764.39489583333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>45261.58835648148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45618.55387731481</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45377.49775462963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>45180</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45366.46909722222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45358</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45560</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45734</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45734</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44602.63045138889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45597.51060185185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45392.47525462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>45555.47060185186</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45532.89505787037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44746.49515046296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45240</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45240</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44503.50170138889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45159.37641203704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44987</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45385.56900462963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45134.49677083334</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45134.49881944444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45306</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>45764.39592592593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44456</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44445.38759259259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44456</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45089.50358796296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45089.5080787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45622.43645833333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45741.56847222222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45741.56908564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44957</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44957</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44503</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>45771.45527777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45771.45670138889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45782.5905324074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45781.90659722222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45062</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45338.34609953704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45786.49619212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45467.42864583333</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45786</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45789.35614583334</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45791.49789351852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45791.48628472222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45791.49327546296</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45791.49697916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45230</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45799.53796296296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45799.53336805556</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45800.64457175926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45800.445</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>

--- a/Översikt LAXÅ.xlsx
+++ b/Översikt LAXÅ.xlsx
@@ -575,7 +575,7 @@
         <v>44867.4296412037</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>45996.33891203703</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44882</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44882</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>45254.63260416667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>45996.33436342593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>45973.58516203704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45996.3310300926</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45618.60362268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45524</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45973.59269675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44861</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44882</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44393</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>44628</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>44867.4266087963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45973.57854166667</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>46008.64375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         <v>44867</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45261</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         <v>45463.32967592592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45747.40402777777</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45791.49608796297</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44837</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44867.42446759259</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45846.51239583334</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>45709</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>45873.43710648148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>45968.39071759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>45981.55150462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45981.55387731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>45524</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>46001.70148148148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>45236</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>45236</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>44867.41003472222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44988</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44908.25326388889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45147</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45259</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44867.42917824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44321.59518518519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>44328</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
         <v>44421.6018287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44361.89840277778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44595</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44297.74986111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>44379</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44297</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
         <v>44426</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44426</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44803.81030092593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44803</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44803</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44617.62023148148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44746</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>44494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44379</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>44825</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>44379.41850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44484</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44813</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44528</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>44286</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>44459</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>44328</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44328</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44363</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>44382</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
         <v>44427</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         <v>44328</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44803</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44434</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44379</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>44621</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44449</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>44426</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>44662.38864583334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44803</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>44357.69152777778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>44805</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>44484</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44804.53834490741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44614</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>44522</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>44530</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>44579.33436342593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>44328.31252314815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44662</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44445.38594907407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44571</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>44378.62489583333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44503</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7754,7 +7754,7 @@
         <v>44378.62453703704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         <v>44805</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7873,7 +7873,7 @@
         <v>44503</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44351.64181712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44795.3625925926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>45338.32368055556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>45740.57796296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>45175.39209490741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45132.7075</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44792</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45160</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45439</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45597.50105324074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         <v>45349</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>45726.42836805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>45261.64101851852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45622.4384375</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>45226.66472222222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>45384</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>45092.37815972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>45344.37394675926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>45377.4959837963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45618.60434027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>45391</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         <v>44475.36864583333</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>45560</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45741.56476851852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>45741.56659722222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>44379.489375</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>45771.45965277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>45771.46131944445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44917.35619212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45160</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45160</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45467.43505787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44797</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44988.54459490741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45337.53797453704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10159,7 +10159,7 @@
         <v>45467.43387731481</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45225</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>45734.4234375</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>44897</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>45408.69633101852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
         <v>44998</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>45886</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>45825</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>45701</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         <v>45698</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10759,7 +10759,7 @@
         <v>45819</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10816,7 +10816,7 @@
         <v>45560</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         <v>45819.33673611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10935,7 +10935,7 @@
         <v>45625.57818287037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10992,7 +10992,7 @@
         <v>45618</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         <v>45819</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>45400.45157407408</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>44357.68817129629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11235,7 +11235,7 @@
         <v>45821.54993055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45821.54633101852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>45821.54746527778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45618.55291666667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45180</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>45827.57152777778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         <v>44813</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11669,7 +11669,7 @@
         <v>44813</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>45827.51025462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>45891.58603009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>45891.58693287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>45744.38372685185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45819.35181712963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45553</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>44503.52611111111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45896</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45601</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44393.49886574074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45090.43478009259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45764.4008912037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12460,7 +12460,7 @@
         <v>44496</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>45905.59076388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>45905.59568287037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45905.59783564815</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45905.59025462963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45905.60946759259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>45905.59133101852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45908.42826388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45908.42994212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45841.57755787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13075,7 +13075,7 @@
         <v>45841.58515046296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         <v>45841.60391203704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>45841.59417824074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>45841.5987962963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45089.6462962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>45908.42685185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45908.4287962963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45908.43072916667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>45841.58979166667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45910.4009375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>45840.71344907407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>45915</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>45021.38399305556</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44748.36506944444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>44792</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>44872.56392361111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45920</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45740.57917824074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44874.4575</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45260</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45873.39019675926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>44872.46712962963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44467.32645833334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>45233.5592824074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>45873</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>45561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>45880.44960648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>45881.6027662037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>45593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45701</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45338</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45935.99478009259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45938.92496527778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>45938.9259375</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>45734.42104166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45600.58674768519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45937.75980324074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45622.43747685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15391,7 +15391,7 @@
         <v>45622.44200231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15453,7 +15453,7 @@
         <v>45622.44274305556</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15515,7 +15515,7 @@
         <v>45554</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         <v>44393.45215277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>45536.6512037037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
         <v>45555.46884259259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45748</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15820,7 +15820,7 @@
         <v>45597.6003125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         <v>45945.99771990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>45945.99828703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>45126</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>45126</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>45622.44341435185</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>45261</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16244,7 +16244,7 @@
         <v>45546.61100694445</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>45950.6081712963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45271.2524537037</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45742.30726851852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45338.35049768518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44522</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>45679.62376157408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45958.42094907408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>44522</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45709</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44886</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45260</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45377.49229166667</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45967.3659837963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         <v>44708.45179398148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>45771.47118055556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45968.38842592593</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45968.5665625</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45216</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45709</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>45771.45430555556</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17491,7 +17491,7 @@
         <v>45975.69277777777</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17548,7 +17548,7 @@
         <v>44993</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>44993</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>45978.43898148148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>45981.37197916667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45981.37136574074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>45980.58049768519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>45392.47633101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45980.45997685185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>45980.46274305556</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>45175</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45338.35387731482</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>45618.60305555556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45986.58210648148</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>45048</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18396,7 +18396,7 @@
         <v>44483</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>46035.59490740741</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>46035.59541666666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18582,7 +18582,7 @@
         <v>45992.60303240741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>46034.70686342593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45403</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>45403</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>46036.37450231481</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>46036.38921296296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18944,7 +18944,7 @@
         <v>45441</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>45441.62837962963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>46036.60891203704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>44879</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19177,7 +19177,7 @@
         <v>45999.54637731481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45995.83008101852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45996.58229166667</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45996.58486111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45999.54435185185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45995.89465277778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>45572.61414351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45161.63891203704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45385.56987268518</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>45385.58356481481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19787,7 +19787,7 @@
         <v>45618.601875</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45536.64768518518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>46045.60472222222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45344.35774305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>46003.76982638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45600</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         <v>44907.42807870371</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>46048</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45973.59538194445</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45537.4871412037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44441</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>46051.42962962963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>46051.43072916667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45569</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44963.68445601852</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>46048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>45740.57543981481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>44813</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45609.36297453703</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44393.45766203704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>46029</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>46029</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>46029</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>45553.45989583333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45558.55032407407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>46058.59171296296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45127.38172453704</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45209.43077546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45132.69987268518</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45132.71356481482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44790.37331018518</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21825,7 +21825,7 @@
         <v>44795</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44475</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44475.37439814815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45240</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44988.55023148148</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>44732.63936342593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45448.51060185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45525</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22301,7 +22301,7 @@
         <v>45240</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22358,7 +22358,7 @@
         <v>45240</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45546.6125925926</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>46069.66158564815</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>46069.66487268519</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>46069.66291666667</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>46069.66438657408</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>45261.6415625</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45454.60694444444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>46029.50076388889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>45630</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>44484</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>45555</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>45747.36502314815</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45747.40925925926</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45560</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>45560</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>46073.54361111111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>46073.54277777778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>45448</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23496,7 +23496,7 @@
         <v>45560.48070601852</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23558,7 +23558,7 @@
         <v>45234</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23615,7 +23615,7 @@
         <v>45245</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23672,7 +23672,7 @@
         <v>45537.46501157407</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         <v>45537.46827546296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45240</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>45385.58478009259</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>45344.3665625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>45230.45271990741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>45734</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44949.6052199074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24143,7 +24143,7 @@
         <v>45525</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>45259.4353587963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>45593</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45764.39489583333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         <v>45261.58835648148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>45618.55387731481</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45377.49775462963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>45180</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45366.46909722222</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45358</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>45155</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>45560</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45734</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45734</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>44494</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>44602.63045138889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45597.51060185185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25162,7 +25162,7 @@
         <v>45392.47525462963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>45555.47060185186</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
         <v>45532.89505787037</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>44746.49515046296</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45240</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45240</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>44503.50170138889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25581,7 +25581,7 @@
         <v>45503</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45503</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>45159.37641203704</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25757,7 +25757,7 @@
         <v>44987</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>45385.56900462963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>45134.49677083334</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45134.49881944444</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45306</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26047,7 +26047,7 @@
         <v>45764.39592592593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>44456</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>44445.38759259259</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>44456</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         <v>45089.50358796296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26347,7 +26347,7 @@
         <v>45089.5080787037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26409,7 +26409,7 @@
         <v>45622.43645833333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45741.56847222222</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45741.56908564815</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44957</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44957</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44503</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>45771.45527777778</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45771.45670138889</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45782.5905324074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26967,7 +26967,7 @@
         <v>45781.90659722222</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27029,7 +27029,7 @@
         <v>45062</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27086,7 +27086,7 @@
         <v>45338.34609953704</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45786.49619212963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45467.42864583333</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45786</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45789.35614583334</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>45791.49789351852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27448,7 +27448,7 @@
         <v>45791.48628472222</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45791.49327546296</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45791.49697916667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         <v>45230</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27696,7 +27696,7 @@
         <v>45799.53796296296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27753,7 +27753,7 @@
         <v>45042</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27810,7 +27810,7 @@
         <v>45799.53336805556</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27867,7 +27867,7 @@
         <v>45800.64457175926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45800.445</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
